--- a/character.xlsx
+++ b/character.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiaoxiao/Documents/电子学校/第二学期/软件大赛备赛/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxiaoxiao/Text Complex Visulization/Text-Complex-Visulization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{651E5ABD-E3DC-A840-83CF-89EFEA6F5F04}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19882972-12FC-1C4B-B17E-19721157140A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="1460" windowWidth="24140" windowHeight="13080" xr2:uid="{C18B952A-4757-5E4C-95A0-493091C27C4C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>阿不思</t>
   </si>
@@ -48,9 +48,6 @@
     <t>巴特缪斯</t>
   </si>
   <si>
-    <t>巴蒂</t>
-  </si>
-  <si>
     <t>克劳奇</t>
   </si>
   <si>
@@ -75,158 +72,246 @@
     <t>芙蓉</t>
   </si>
   <si>
-    <t>德拉库尔</t>
-  </si>
-  <si>
-    <t>吉德罗</t>
-  </si>
-  <si>
-    <t>洛哈特教授</t>
-  </si>
-  <si>
-    <t>格利高里</t>
-  </si>
-  <si>
     <t>高尔</t>
   </si>
   <si>
+    <t>赫敏</t>
+  </si>
+  <si>
+    <t>格兰杰</t>
+  </si>
+  <si>
+    <t>卡卡洛夫</t>
+  </si>
+  <si>
+    <t>伏地魔</t>
+  </si>
+  <si>
+    <t>卢修斯</t>
+  </si>
+  <si>
+    <t>平斯夫人</t>
+  </si>
+  <si>
+    <t>庞弗雷夫人</t>
+  </si>
+  <si>
+    <t>疯眼汉</t>
+  </si>
+  <si>
+    <t>阿拉斯托</t>
+  </si>
+  <si>
+    <t>穆迪</t>
+  </si>
+  <si>
+    <t>米勒娃</t>
+  </si>
+  <si>
+    <t>哭泣的桃金娘</t>
+  </si>
+  <si>
+    <t>差点没头的尼克</t>
+  </si>
+  <si>
+    <t>纳威</t>
+  </si>
+  <si>
+    <t>隆巴顿</t>
+  </si>
+  <si>
+    <t>皮皮鬼</t>
+  </si>
+  <si>
+    <t>小矮星彼特</t>
+  </si>
+  <si>
+    <t>小猪</t>
+  </si>
+  <si>
+    <t>丽塔</t>
+  </si>
+  <si>
+    <t>斯基特</t>
+  </si>
+  <si>
+    <t>海格</t>
+  </si>
+  <si>
+    <t>西比尔</t>
+  </si>
+  <si>
+    <t>小天狼星布莱克</t>
+  </si>
+  <si>
+    <t>汤姆</t>
+  </si>
+  <si>
+    <t>马沃罗</t>
+  </si>
+  <si>
+    <t>里德尔</t>
+  </si>
+  <si>
+    <t>威克多尔</t>
+  </si>
+  <si>
+    <t>古怪姐妹</t>
+  </si>
+  <si>
+    <t>闪闪</t>
+  </si>
+  <si>
+    <t>弗农</t>
+  </si>
+  <si>
+    <t>佩妮</t>
+  </si>
+  <si>
+    <t>玛姬</t>
+  </si>
+  <si>
+    <t>阿不思邓布利多</t>
+  </si>
+  <si>
+    <t>阿不思.邓布利多</t>
+  </si>
+  <si>
+    <t>哈利.波特</t>
+  </si>
+  <si>
+    <t>弗农德思礼</t>
+  </si>
+  <si>
+    <t>弗农.德思礼</t>
+  </si>
+  <si>
+    <t>德思礼</t>
+  </si>
+  <si>
+    <t>达力</t>
+  </si>
+  <si>
+    <t>麦格</t>
+  </si>
+  <si>
+    <t>斯内普</t>
+  </si>
+  <si>
+    <t>罗恩</t>
+  </si>
+  <si>
+    <t>神秘人</t>
+  </si>
+  <si>
+    <t>奇洛</t>
+  </si>
+  <si>
+    <t>亚瑟·韦斯莱</t>
+  </si>
+  <si>
+    <t>德拉科·马尔福</t>
+  </si>
+  <si>
+    <t>芙蓉·德拉库尔</t>
+  </si>
+  <si>
+    <t>格利高里·高尔</t>
+  </si>
+  <si>
+    <t>赫敏·格兰杰</t>
+  </si>
+  <si>
+    <t>伊格尔·卡卡洛夫</t>
+  </si>
+  <si>
+    <t>卢修斯·马尔福</t>
+  </si>
+  <si>
+    <t>卢多·巴格曼</t>
+  </si>
+  <si>
+    <t>汤姆·马沃罗·里德尔</t>
+  </si>
+  <si>
+    <t>威克多尔·克鲁姆</t>
+  </si>
+  <si>
+    <t>文森特·格拉布</t>
+  </si>
+  <si>
+    <t>克鲁克山</t>
+  </si>
+  <si>
+    <t>牙牙</t>
+  </si>
+  <si>
+    <t>格林迪洛</t>
+  </si>
+  <si>
+    <t>海德薇</t>
+  </si>
+  <si>
+    <t>巴蒂·克劳奇</t>
+  </si>
+  <si>
+    <t>洛哈特</t>
+  </si>
+  <si>
+    <t>吉德罗·洛哈特</t>
+  </si>
+  <si>
+    <t>克拉布</t>
+  </si>
+  <si>
+    <t>桃金娘</t>
+  </si>
+  <si>
+    <t>彼特</t>
+  </si>
+  <si>
+    <t>小矮星</t>
+  </si>
+  <si>
+    <t>詹姆</t>
+  </si>
+  <si>
+    <t>莉莉</t>
+  </si>
+  <si>
+    <t>宾斯</t>
+  </si>
+  <si>
+    <t>弗利维</t>
+  </si>
+  <si>
+    <t>斯普劳特</t>
+  </si>
+  <si>
+    <t>莱姆斯</t>
+  </si>
+  <si>
+    <t>卢平</t>
+  </si>
+  <si>
+    <t>特里劳尼</t>
+  </si>
+  <si>
+    <t>小天狼星</t>
+  </si>
+  <si>
     <t>哈利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>波特</t>
-  </si>
-  <si>
-    <t>赫敏</t>
-  </si>
-  <si>
-    <t>格兰杰</t>
-  </si>
-  <si>
-    <t>伊格尔</t>
-  </si>
-  <si>
-    <t>卡卡洛夫</t>
-  </si>
-  <si>
-    <t>伏地魔</t>
-  </si>
-  <si>
-    <t>卢修斯</t>
-  </si>
-  <si>
-    <t>卢多</t>
-  </si>
-  <si>
-    <t>巴格曼</t>
-  </si>
-  <si>
-    <t>平斯夫人</t>
-  </si>
-  <si>
-    <t>庞弗雷夫人</t>
-  </si>
-  <si>
-    <t>疯眼汉</t>
-  </si>
-  <si>
-    <t>阿拉斯托</t>
-  </si>
-  <si>
-    <t>穆迪</t>
-  </si>
-  <si>
-    <t>米勒娃</t>
-  </si>
-  <si>
-    <t>麦格教授</t>
-  </si>
-  <si>
-    <t>哭泣的桃金娘</t>
-  </si>
-  <si>
-    <t>差点没头的尼克</t>
-  </si>
-  <si>
-    <t>纳威</t>
-  </si>
-  <si>
-    <t>隆巴顿</t>
-  </si>
-  <si>
-    <t>皮皮鬼</t>
-  </si>
-  <si>
-    <t>小矮星彼特</t>
-  </si>
-  <si>
-    <t>小猪</t>
-  </si>
-  <si>
-    <t>詹姆和莉莉</t>
-  </si>
-  <si>
-    <t>宾斯教授</t>
-  </si>
-  <si>
-    <t>弗利维教授</t>
-  </si>
-  <si>
-    <t>斯普劳特教授</t>
-  </si>
-  <si>
-    <t>丽塔</t>
-  </si>
-  <si>
-    <t>斯基特</t>
-  </si>
-  <si>
-    <t>莱姆斯J.卢平</t>
-  </si>
-  <si>
-    <t>海格</t>
-  </si>
-  <si>
-    <t>西比尔</t>
-  </si>
-  <si>
-    <t>特里劳尼教授</t>
-  </si>
-  <si>
-    <t>小天狼星布莱克</t>
-  </si>
-  <si>
-    <t>汤姆</t>
-  </si>
-  <si>
-    <t>马沃罗</t>
-  </si>
-  <si>
-    <t>里德尔</t>
-  </si>
-  <si>
-    <t>威克多尔</t>
-  </si>
-  <si>
-    <t>克鲁姆</t>
-  </si>
-  <si>
-    <t>文森特</t>
-  </si>
-  <si>
-    <t>格拉布</t>
-  </si>
-  <si>
-    <t>古怪姐妹</t>
-  </si>
-  <si>
-    <t>闪闪</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,6 +324,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -265,8 +359,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C97478-B9E6-1A4D-9E47-2342F6CA9D17}">
-  <dimension ref="A1:A65"/>
+  <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A66"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -603,317 +700,477 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" s="1" customFormat="1">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" s="1" customFormat="1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
